--- a/NEW HR/DONE/ABELA, IMELDA.xlsx
+++ b/NEW HR/DONE/ABELA, IMELDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="148">
   <si>
     <t>PERIOD</t>
   </si>
@@ -863,17 +863,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -883,6 +880,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,9 +1773,9 @@
   <dimension ref="A2:K116"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2190" activePane="bottomLeft"/>
+      <pane ySplit="2190" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,14 +1805,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1823,16 +1823,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1845,14 +1845,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1878,18 +1878,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1936,7 +1936,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>34.75</v>
+        <v>37.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1946,7 +1946,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3412,13 +3412,15 @@
         <v>45017</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="9"/>
@@ -3426,15 +3428,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
+      <c r="A82" s="41">
+        <v>45047</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="9"/>
@@ -3442,7 +3448,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
+      <c r="A83" s="41">
+        <v>45078</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="40"/>
@@ -3987,17 +3995,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4033,9 +4041,9 @@
   <dimension ref="A2:K204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A148" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A149" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:I14"/>
-      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
+      <selection pane="bottomLeft" activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,14 +4073,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4083,16 +4091,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4105,14 +4113,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4138,18 +4146,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4206,7 +4214,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.75</v>
+        <v>15.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7674,7 +7682,9 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="41"/>
+      <c r="A168" s="41">
+        <v>45047</v>
+      </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
       <c r="D168" s="40"/>
@@ -7690,8 +7700,12 @@
       <c r="K168" s="20"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="41"/>
-      <c r="B169" s="20"/>
+      <c r="A169" s="41">
+        <v>45078</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C169" s="13"/>
       <c r="D169" s="40"/>
       <c r="E169" s="9"/>
@@ -7700,10 +7714,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H169" s="40"/>
+      <c r="H169" s="40">
+        <v>1</v>
+      </c>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="20"/>
+      <c r="K169" s="48">
+        <v>45082</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41"/>

--- a/NEW HR/DONE/ABELA, IMELDA.xlsx
+++ b/NEW HR/DONE/ABELA, IMELDA.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="148">
   <si>
     <t>PERIOD</t>
   </si>
@@ -863,14 +863,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -880,9 +883,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1805,14 +1805,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1823,16 +1823,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1845,14 +1845,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1878,18 +1878,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3995,17 +3995,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4041,9 +4041,9 @@
   <dimension ref="A2:K204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A149" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A158" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:I14"/>
-      <selection pane="bottomLeft" activeCell="H169" sqref="H169"/>
+      <selection pane="bottomLeft" activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,14 +4073,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4091,16 +4091,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4113,14 +4113,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4146,18 +4146,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7725,7 +7725,9 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41"/>
-      <c r="B170" s="20"/>
+      <c r="B170" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C170" s="13"/>
       <c r="D170" s="40"/>
       <c r="E170" s="9"/>
@@ -7737,7 +7739,9 @@
       <c r="H170" s="40"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
+      <c r="K170" s="48">
+        <v>45104</v>
+      </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
